--- a/Code/Results/Cases/Case_1_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2778432981060064</v>
+        <v>0.0991943625247842</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2385503594982907</v>
+        <v>0.2465389893554288</v>
       </c>
       <c r="E2">
-        <v>0.1817568571240713</v>
+        <v>0.1802219370757498</v>
       </c>
       <c r="F2">
-        <v>0.6133146632727673</v>
+        <v>1.017494598466044</v>
       </c>
       <c r="G2">
-        <v>0.3207149547750703</v>
+        <v>0.4823459311640335</v>
       </c>
       <c r="H2">
-        <v>0.260894416847826</v>
+        <v>0.6272393108492196</v>
       </c>
       <c r="I2">
-        <v>0.1709693190267824</v>
+        <v>0.4036582028573055</v>
       </c>
       <c r="J2">
-        <v>0.1848917841573083</v>
+        <v>0.1773797456778965</v>
       </c>
       <c r="K2">
-        <v>1.906709687541223</v>
+        <v>0.6123666042022364</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7534378198336995</v>
+        <v>1.22294484838072</v>
       </c>
       <c r="O2">
-        <v>1.175847903153084</v>
+        <v>2.179715765374254</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2419241382701642</v>
+        <v>0.08787964648861646</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.212674623900341</v>
+        <v>0.2406054295737192</v>
       </c>
       <c r="E3">
-        <v>0.1621091206317828</v>
+        <v>0.1759379115367139</v>
       </c>
       <c r="F3">
-        <v>0.5745941110689472</v>
+        <v>1.015324480435815</v>
       </c>
       <c r="G3">
-        <v>0.2998578429329868</v>
+        <v>0.4814798036775514</v>
       </c>
       <c r="H3">
-        <v>0.2563910862186631</v>
+        <v>0.6303861829426225</v>
       </c>
       <c r="I3">
-        <v>0.1816683108198039</v>
+        <v>0.4094251378300842</v>
       </c>
       <c r="J3">
-        <v>0.1649296707216621</v>
+        <v>0.1731944066788955</v>
       </c>
       <c r="K3">
-        <v>1.664357741311989</v>
+        <v>0.536990673054305</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7664691546309612</v>
+        <v>1.23033099095953</v>
       </c>
       <c r="O3">
-        <v>1.121862134293195</v>
+        <v>2.184209726200109</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2198454165859545</v>
+        <v>0.08092942514305435</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1969479593241488</v>
+        <v>0.2370649443556232</v>
       </c>
       <c r="E4">
-        <v>0.1502112694287874</v>
+        <v>0.1733969294318918</v>
       </c>
       <c r="F4">
-        <v>0.5518593726360521</v>
+        <v>1.014560129155043</v>
       </c>
       <c r="G4">
-        <v>0.2877480657780822</v>
+        <v>0.481280726949727</v>
       </c>
       <c r="H4">
-        <v>0.2540730211869331</v>
+        <v>0.6325945259675052</v>
       </c>
       <c r="I4">
-        <v>0.1886014473522658</v>
+        <v>0.4131692934360599</v>
       </c>
       <c r="J4">
-        <v>0.1528808060869622</v>
+        <v>0.1707243435391632</v>
       </c>
       <c r="K4">
-        <v>1.515420836872295</v>
+        <v>0.4905883100813924</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7752742970978943</v>
+        <v>1.235282209660362</v>
       </c>
       <c r="O4">
-        <v>1.091117970855606</v>
+        <v>2.188243333832233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.210840909296536</v>
+        <v>0.07809665984949277</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1905767635924747</v>
+        <v>0.2356481340113561</v>
       </c>
       <c r="E5">
-        <v>0.1454014076997545</v>
+        <v>0.172384009244098</v>
       </c>
       <c r="F5">
-        <v>0.5428423976219534</v>
+        <v>1.014391598626247</v>
       </c>
       <c r="G5">
-        <v>0.2829783345806334</v>
+        <v>0.4812832209035136</v>
       </c>
       <c r="H5">
-        <v>0.2532363323045033</v>
+        <v>0.633563940972607</v>
       </c>
       <c r="I5">
-        <v>0.1915162487171836</v>
+        <v>0.414746182288344</v>
       </c>
       <c r="J5">
-        <v>0.1480191027038416</v>
+        <v>0.1697428874650129</v>
       </c>
       <c r="K5">
-        <v>1.454681790456362</v>
+        <v>0.4716497704200151</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7790598398122413</v>
+        <v>1.237404668673001</v>
       </c>
       <c r="O5">
-        <v>1.079163133922776</v>
+        <v>2.190207505010108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2093452473824016</v>
+        <v>0.07762625874360651</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1895210149594533</v>
+        <v>0.2354144458504379</v>
       </c>
       <c r="E6">
-        <v>0.1446049773533424</v>
+        <v>0.1722171784900652</v>
       </c>
       <c r="F6">
-        <v>0.5413596977161532</v>
+        <v>1.014372250757503</v>
       </c>
       <c r="G6">
-        <v>0.2821960104890735</v>
+        <v>0.4812886840172865</v>
       </c>
       <c r="H6">
-        <v>0.2531037935688545</v>
+        <v>0.6337291107400773</v>
       </c>
       <c r="I6">
-        <v>0.1920055965537805</v>
+        <v>0.4150111110030307</v>
       </c>
       <c r="J6">
-        <v>0.1472146252113404</v>
+        <v>0.1695814352188876</v>
       </c>
       <c r="K6">
-        <v>1.444592975667973</v>
+        <v>0.4685033145785837</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7797002121663255</v>
+        <v>1.237763435799579</v>
       </c>
       <c r="O6">
-        <v>1.077211819125679</v>
+        <v>2.19055300846955</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.219724009485148</v>
+        <v>0.08089122315271879</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1968618869479428</v>
+        <v>0.2370457314471253</v>
       </c>
       <c r="E7">
-        <v>0.1501462496386523</v>
+        <v>0.1733831774447872</v>
       </c>
       <c r="F7">
-        <v>0.5517367818355154</v>
+        <v>1.014557277376312</v>
       </c>
       <c r="G7">
-        <v>0.2876830839915741</v>
+        <v>0.4812804220767717</v>
       </c>
       <c r="H7">
-        <v>0.2540613060033152</v>
+        <v>0.6326073183701624</v>
       </c>
       <c r="I7">
-        <v>0.1886403976511443</v>
+        <v>0.4131903529334743</v>
       </c>
       <c r="J7">
-        <v>0.1528150489937232</v>
+        <v>0.1707110055490375</v>
       </c>
       <c r="K7">
-        <v>1.514601891757479</v>
+        <v>0.4903330148381713</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7753245572147733</v>
+        <v>1.235310409342453</v>
       </c>
       <c r="O7">
-        <v>1.090954460554784</v>
+        <v>2.188268525856131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2654626661526294</v>
+        <v>0.09529380240138607</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2295931205882056</v>
+        <v>0.2444718491668425</v>
       </c>
       <c r="E8">
-        <v>0.1749459498795005</v>
+        <v>0.1787262809616337</v>
       </c>
       <c r="F8">
-        <v>0.5997394508895297</v>
+        <v>1.016628482867489</v>
       </c>
       <c r="G8">
-        <v>0.3133726491006215</v>
+        <v>0.4819782018454504</v>
       </c>
       <c r="H8">
-        <v>0.2592461447808247</v>
+        <v>0.6282670708147862</v>
       </c>
       <c r="I8">
-        <v>0.1745815706295471</v>
+        <v>0.405604467494862</v>
       </c>
       <c r="J8">
-        <v>0.1779632243900267</v>
+        <v>0.1759159543776576</v>
       </c>
       <c r="K8">
-        <v>1.823166007706334</v>
+        <v>0.5864028945492805</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7577612567814995</v>
+        <v>1.225405328146586</v>
       </c>
       <c r="O8">
-        <v>1.156715893884311</v>
+        <v>2.181000804097152</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3550240551657282</v>
+        <v>0.1235044466756676</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2952017403609233</v>
+        <v>0.2598448922137067</v>
       </c>
       <c r="E9">
-        <v>0.2250449306281084</v>
+        <v>0.1899115791062584</v>
       </c>
       <c r="F9">
-        <v>0.7027842706160072</v>
+        <v>1.025195334485886</v>
       </c>
       <c r="G9">
-        <v>0.3697553628595358</v>
+        <v>0.4859896270587569</v>
       </c>
       <c r="H9">
-        <v>0.2731724345055966</v>
+        <v>0.6219447733318333</v>
       </c>
       <c r="I9">
-        <v>0.1499926845559544</v>
+        <v>0.3923404811429856</v>
       </c>
       <c r="J9">
-        <v>0.2291201577494064</v>
+        <v>0.1869136928928583</v>
       </c>
       <c r="K9">
-        <v>2.427865825511986</v>
+        <v>0.7737859428107754</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7299222359436115</v>
+        <v>1.209275945642901</v>
       </c>
       <c r="O9">
-        <v>1.306202391127073</v>
+        <v>2.176861862184865</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4208392173284068</v>
+        <v>0.1442001207571479</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3444874736841541</v>
+        <v>0.271628493022547</v>
       </c>
       <c r="E10">
-        <v>0.2629703343126764</v>
+        <v>0.1985589939653423</v>
       </c>
       <c r="F10">
-        <v>0.7848985478235022</v>
+        <v>1.03423496470441</v>
       </c>
       <c r="G10">
-        <v>0.4155446879416047</v>
+        <v>0.4905535360955184</v>
       </c>
       <c r="H10">
-        <v>0.2860074104600443</v>
+        <v>0.6186316391853808</v>
       </c>
       <c r="I10">
-        <v>0.1338763267660313</v>
+        <v>0.3835768905006364</v>
       </c>
       <c r="J10">
-        <v>0.268111833060658</v>
+        <v>0.1954760891039484</v>
       </c>
       <c r="K10">
-        <v>2.872913079434227</v>
+        <v>0.9107894739537983</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7138202834214056</v>
+        <v>1.199424836302761</v>
       </c>
       <c r="O10">
-        <v>1.430690787901909</v>
+        <v>2.179992691386417</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.450806051544177</v>
+        <v>0.1536063035919</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3671950649441982</v>
+        <v>0.2770943542581392</v>
       </c>
       <c r="E11">
-        <v>0.2805191610882076</v>
+        <v>0.2025858987870777</v>
       </c>
       <c r="F11">
-        <v>0.8238756722142853</v>
+        <v>1.038943451204602</v>
       </c>
       <c r="G11">
-        <v>0.4374892683910332</v>
+        <v>0.4929820654764399</v>
       </c>
       <c r="H11">
-        <v>0.2924852966557694</v>
+        <v>0.6174131025454699</v>
       </c>
       <c r="I11">
-        <v>0.1269980778257475</v>
+        <v>0.3798029548228782</v>
       </c>
       <c r="J11">
-        <v>0.2862228936334077</v>
+        <v>0.1994761959647491</v>
       </c>
       <c r="K11">
-        <v>3.075790730546771</v>
+        <v>0.972961028878558</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7075162475637029</v>
+        <v>1.1953755242276</v>
       </c>
       <c r="O11">
-        <v>1.491013569479691</v>
+        <v>2.182758757657325</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4621594837101384</v>
+        <v>0.1571667496039879</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3758395852715637</v>
+        <v>0.279179181595822</v>
       </c>
       <c r="E12">
-        <v>0.287211698962679</v>
+        <v>0.2041241278389307</v>
       </c>
       <c r="F12">
-        <v>0.8388889968293967</v>
+        <v>1.040812128864772</v>
       </c>
       <c r="G12">
-        <v>0.4459741304035845</v>
+        <v>0.4939524332274914</v>
       </c>
       <c r="H12">
-        <v>0.2950367623240737</v>
+        <v>0.6169931317705277</v>
       </c>
       <c r="I12">
-        <v>0.124461299782742</v>
+        <v>0.3784044339365106</v>
       </c>
       <c r="J12">
-        <v>0.2931407280295844</v>
+        <v>0.2010060193490659</v>
       </c>
       <c r="K12">
-        <v>3.152697370904235</v>
+        <v>0.9964807688046733</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7052826385855298</v>
+        <v>1.1939041296746</v>
       </c>
       <c r="O12">
-        <v>1.51443211358341</v>
+        <v>2.183999216285827</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4597140392018844</v>
+        <v>0.1564000135150536</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3739757307590139</v>
+        <v>0.2787295107203533</v>
       </c>
       <c r="E13">
-        <v>0.2857681670629404</v>
+        <v>0.2037922510235575</v>
       </c>
       <c r="F13">
-        <v>0.8356439977162893</v>
+        <v>1.040405866408847</v>
       </c>
       <c r="G13">
-        <v>0.4441387406668298</v>
+        <v>0.4937411896488442</v>
       </c>
       <c r="H13">
-        <v>0.2944827724701184</v>
+        <v>0.6170817365867265</v>
       </c>
       <c r="I13">
-        <v>0.1250045776407974</v>
+        <v>0.3787042699933272</v>
       </c>
       <c r="J13">
-        <v>0.291648101851294</v>
+        <v>0.2006758748199218</v>
       </c>
       <c r="K13">
-        <v>3.136130192816466</v>
+        <v>0.9914164298446337</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7057567428082763</v>
+        <v>1.194218265746322</v>
       </c>
       <c r="O13">
-        <v>1.509362168109675</v>
+        <v>2.183723476328993</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4517399818302721</v>
+        <v>0.1538992546358742</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3679053140967028</v>
+        <v>0.2772655739405963</v>
       </c>
       <c r="E14">
-        <v>0.2810687874864044</v>
+        <v>0.2027121831011485</v>
       </c>
       <c r="F14">
-        <v>0.8251056261305223</v>
+        <v>1.039095471788386</v>
       </c>
       <c r="G14">
-        <v>0.4381837301822316</v>
+        <v>0.4930608810201562</v>
       </c>
       <c r="H14">
-        <v>0.2926931957265992</v>
+        <v>0.6173777205604978</v>
       </c>
       <c r="I14">
-        <v>0.1267879995267923</v>
+        <v>0.379687284633578</v>
       </c>
       <c r="J14">
-        <v>0.2867907992541348</v>
+        <v>0.1996017536290395</v>
       </c>
       <c r="K14">
-        <v>3.082116134595822</v>
+        <v>0.9748964866817289</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7073293686741664</v>
+        <v>1.195253230033948</v>
       </c>
       <c r="O14">
-        <v>1.492928424820747</v>
+        <v>2.182856942432551</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.44685642961052</v>
+        <v>0.1523672681267101</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3641930870389132</v>
+        <v>0.2763708228953305</v>
       </c>
       <c r="E15">
-        <v>0.2781965662854446</v>
+        <v>0.2020523439434854</v>
       </c>
       <c r="F15">
-        <v>0.8186842074304224</v>
+        <v>1.038303972602407</v>
       </c>
       <c r="G15">
-        <v>0.4345593449454412</v>
+        <v>0.4926507815959695</v>
       </c>
       <c r="H15">
-        <v>0.2916100475535188</v>
+        <v>0.6175644177236137</v>
       </c>
       <c r="I15">
-        <v>0.1278893173155681</v>
+        <v>0.380293392936504</v>
       </c>
       <c r="J15">
-        <v>0.2838234991982631</v>
+        <v>0.1989457849065275</v>
       </c>
       <c r="K15">
-        <v>3.049042181987687</v>
+        <v>0.9647744709254198</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7083128580396405</v>
+        <v>1.195895244927819</v>
       </c>
       <c r="O15">
-        <v>1.482938619699325</v>
+        <v>2.182351302513126</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4188815068930154</v>
+        <v>0.1435852131685209</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.343009624275922</v>
+        <v>0.2712733961022877</v>
       </c>
       <c r="E16">
-        <v>0.2618298239635095</v>
+        <v>0.1982976949605373</v>
       </c>
       <c r="F16">
-        <v>0.7823856522810217</v>
+        <v>1.033939247162593</v>
       </c>
       <c r="G16">
-        <v>0.4141342188020189</v>
+        <v>0.490401922351964</v>
       </c>
       <c r="H16">
-        <v>0.2855974749238896</v>
+        <v>0.6187170777556332</v>
       </c>
       <c r="I16">
-        <v>0.1343351834250297</v>
+        <v>0.3838278059254487</v>
       </c>
       <c r="J16">
-        <v>0.2669362409063183</v>
+        <v>0.1952167833375569</v>
       </c>
       <c r="K16">
-        <v>2.859664774282948</v>
+        <v>0.9067232361870197</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7142533811820826</v>
+        <v>1.199698150274948</v>
       </c>
       <c r="O16">
-        <v>1.426826604344484</v>
+        <v>2.179838928369293</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4017279589568545</v>
+        <v>0.1381953705507044</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3300908312619129</v>
+        <v>0.2681731979621418</v>
       </c>
       <c r="E17">
-        <v>0.2518684165182492</v>
+        <v>0.1960181500300138</v>
       </c>
       <c r="F17">
-        <v>0.7605472738795527</v>
+        <v>1.031414307966301</v>
       </c>
       <c r="G17">
-        <v>0.401899698596381</v>
+        <v>0.48911261994553</v>
       </c>
       <c r="H17">
-        <v>0.2820771730355318</v>
+        <v>0.6194980916503852</v>
       </c>
       <c r="I17">
-        <v>0.1384074629753204</v>
+        <v>0.3860505265425244</v>
       </c>
       <c r="J17">
-        <v>0.2566761730637666</v>
+        <v>0.1929560387170426</v>
       </c>
       <c r="K17">
-        <v>2.743610319201679</v>
+        <v>0.8710707357026592</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7181638763317721</v>
+        <v>1.202141663462761</v>
       </c>
       <c r="O17">
-        <v>1.39338028404552</v>
+        <v>2.17864138440288</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3918641404185479</v>
+        <v>0.1350945024410635</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3226870457011728</v>
+        <v>0.2663999789847367</v>
       </c>
       <c r="E18">
-        <v>0.2461664838936599</v>
+        <v>0.1947157880976391</v>
       </c>
       <c r="F18">
-        <v>0.7481378922883124</v>
+        <v>1.030018162000218</v>
       </c>
       <c r="G18">
-        <v>0.3949667256659524</v>
+        <v>0.4884042116184446</v>
       </c>
       <c r="H18">
-        <v>0.2801121377900415</v>
+        <v>0.6199744793646431</v>
       </c>
       <c r="I18">
-        <v>0.1407922155119843</v>
+        <v>0.3873489934138694</v>
       </c>
       <c r="J18">
-        <v>0.2508096410151524</v>
+        <v>0.1916656061514459</v>
       </c>
       <c r="K18">
-        <v>2.676897405979105</v>
+        <v>0.8505501343761921</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7205087452354419</v>
+        <v>1.203587777752531</v>
       </c>
       <c r="O18">
-        <v>1.374487550727167</v>
+        <v>2.178078885608642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3885247905033111</v>
+        <v>0.1340444770878548</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3201847199253791</v>
+        <v>0.2658013077107171</v>
       </c>
       <c r="E19">
-        <v>0.2442405146367719</v>
+        <v>0.1942763393802167</v>
       </c>
       <c r="F19">
-        <v>0.743961711792565</v>
+        <v>1.029555093949057</v>
       </c>
       <c r="G19">
-        <v>0.3926367718853214</v>
+        <v>0.488170050769412</v>
       </c>
       <c r="H19">
-        <v>0.2794568809048457</v>
+        <v>0.6201404436533835</v>
       </c>
       <c r="I19">
-        <v>0.1416068682752632</v>
+        <v>0.3877920697145817</v>
       </c>
       <c r="J19">
-        <v>0.248829136846993</v>
+        <v>0.1912303871309575</v>
       </c>
       <c r="K19">
-        <v>2.65431558404228</v>
+        <v>0.8435998111776541</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7213189054424092</v>
+        <v>1.204084396346865</v>
       </c>
       <c r="O19">
-        <v>1.368148685236264</v>
+        <v>2.177910123081062</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4035537178059343</v>
+        <v>0.1387692104476344</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3314632584731356</v>
+        <v>0.2685021923187776</v>
       </c>
       <c r="E20">
-        <v>0.2529259362031127</v>
+        <v>0.1962599040969835</v>
       </c>
       <c r="F20">
-        <v>0.7628561874414146</v>
+        <v>1.03167728309981</v>
       </c>
       <c r="G20">
-        <v>0.4031912176859578</v>
+        <v>0.4892464355386181</v>
       </c>
       <c r="H20">
-        <v>0.2824456854992974</v>
+        <v>0.6194121397786034</v>
       </c>
       <c r="I20">
-        <v>0.1379695456488246</v>
+        <v>0.3858118424387453</v>
       </c>
       <c r="J20">
-        <v>0.2577647332606716</v>
+        <v>0.1931956757167228</v>
       </c>
       <c r="K20">
-        <v>2.755960382786952</v>
+        <v>0.8748674878386851</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.717737649416307</v>
+        <v>1.201877339056999</v>
       </c>
       <c r="O20">
-        <v>1.396904711906984</v>
+        <v>2.178755793349239</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4540819882685412</v>
+        <v>0.1546338301855741</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.369687067729501</v>
+        <v>0.2776951610058802</v>
       </c>
       <c r="E21">
-        <v>0.2824477909326717</v>
+        <v>0.2030290640652694</v>
       </c>
       <c r="F21">
-        <v>0.828193953312379</v>
+        <v>1.039478041819095</v>
       </c>
       <c r="G21">
-        <v>0.4399279924249697</v>
+        <v>0.4932593266802598</v>
       </c>
       <c r="H21">
-        <v>0.293216112360156</v>
+        <v>0.6172896579381728</v>
       </c>
       <c r="I21">
-        <v>0.126262301290926</v>
+        <v>0.3793977192473922</v>
       </c>
       <c r="J21">
-        <v>0.2882158414838614</v>
+        <v>0.1999168403411176</v>
       </c>
       <c r="K21">
-        <v>3.097978996343073</v>
+        <v>0.9797494374915345</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7068632257881902</v>
+        <v>1.194947554510854</v>
       </c>
       <c r="O21">
-        <v>1.49773942115732</v>
+        <v>2.183106225796763</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4871389081200874</v>
+        <v>0.164993577392508</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3949368329314495</v>
+        <v>0.2837908062900851</v>
       </c>
       <c r="E22">
-        <v>0.3020193577007717</v>
+        <v>0.2075307531134811</v>
       </c>
       <c r="F22">
-        <v>0.8723840642705767</v>
+        <v>1.045075639197762</v>
       </c>
       <c r="G22">
-        <v>0.4649646820477926</v>
+        <v>0.4961777424044271</v>
       </c>
       <c r="H22">
-        <v>0.300832275750551</v>
+        <v>0.6161441500875213</v>
       </c>
       <c r="I22">
-        <v>0.1190078568911501</v>
+        <v>0.3753840039961739</v>
       </c>
       <c r="J22">
-        <v>0.3084676190356532</v>
+        <v>0.2043973319573809</v>
       </c>
       <c r="K22">
-        <v>3.32199233682735</v>
+        <v>1.048159512576547</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7006548499670799</v>
+        <v>1.190779818449293</v>
       </c>
       <c r="O22">
-        <v>1.567018722173543</v>
+        <v>2.18707451523386</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4694921152964753</v>
+        <v>0.1594652690231158</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3814344994764838</v>
+        <v>0.2805294843603292</v>
       </c>
       <c r="E23">
-        <v>0.2915466816087431</v>
+        <v>0.2051210342701353</v>
       </c>
       <c r="F23">
-        <v>0.8486558008226268</v>
+        <v>1.042042429973378</v>
       </c>
       <c r="G23">
-        <v>0.4515030684024026</v>
+        <v>0.4945930461467327</v>
       </c>
       <c r="H23">
-        <v>0.296712318301374</v>
+        <v>0.6167334311838459</v>
       </c>
       <c r="I23">
-        <v>0.1228424471850311</v>
+        <v>0.3775098844061205</v>
       </c>
       <c r="J23">
-        <v>0.2976247809867374</v>
+        <v>0.201997984735641</v>
       </c>
       <c r="K23">
-        <v>3.202380707808118</v>
+        <v>1.011660710875503</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7038837995490397</v>
+        <v>1.1929712028304</v>
       </c>
       <c r="O23">
-        <v>1.529718442812992</v>
+        <v>2.184853606499701</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4027282986372995</v>
+        <v>0.138509784187093</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3308427115678683</v>
+        <v>0.2683534255334621</v>
       </c>
       <c r="E24">
-        <v>0.2524477539842493</v>
+        <v>0.1961505816028932</v>
       </c>
       <c r="F24">
-        <v>0.7618118750162495</v>
+        <v>1.031558219235237</v>
       </c>
       <c r="G24">
-        <v>0.4026070089816187</v>
+        <v>0.4891858352546024</v>
       </c>
       <c r="H24">
-        <v>0.2822788982498849</v>
+        <v>0.6194509133530062</v>
       </c>
       <c r="I24">
-        <v>0.1381673926428333</v>
+        <v>0.3859196873710103</v>
       </c>
       <c r="J24">
-        <v>0.2572724955942931</v>
+        <v>0.1930873068600079</v>
       </c>
       <c r="K24">
-        <v>2.75037689458739</v>
+        <v>0.8731510493021233</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7179300459994451</v>
+        <v>1.201996711446014</v>
       </c>
       <c r="O24">
-        <v>1.395310274843183</v>
+        <v>2.178703676632182</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.330800002027047</v>
+        <v>0.1158773366562542</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2772790412109885</v>
+        <v>0.2555998328936653</v>
       </c>
       <c r="E25">
-        <v>0.2113125212987299</v>
+        <v>0.1868100951436418</v>
       </c>
       <c r="F25">
-        <v>0.6738566920896005</v>
+        <v>1.02239555301356</v>
       </c>
       <c r="G25">
-        <v>0.3537892355764143</v>
+        <v>0.484620906670429</v>
       </c>
       <c r="H25">
-        <v>0.2689715168742168</v>
+        <v>0.6234210497628823</v>
       </c>
       <c r="I25">
-        <v>0.1563122485851582</v>
+        <v>0.3957562997120113</v>
       </c>
       <c r="J25">
-        <v>0.2150554156142448</v>
+        <v>0.1838538211840444</v>
       </c>
       <c r="K25">
-        <v>2.264220312525765</v>
+        <v>0.7232072601819937</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.736713977972876</v>
+        <v>1.213287643735057</v>
       </c>
       <c r="O25">
-        <v>1.263350679449047</v>
+        <v>2.176898205287785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0991943625247842</v>
+        <v>0.2778432981060206</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2465389893554288</v>
+        <v>0.238550359498177</v>
       </c>
       <c r="E2">
-        <v>0.1802219370757498</v>
+        <v>0.1817568571240855</v>
       </c>
       <c r="F2">
-        <v>1.017494598466044</v>
+        <v>0.6133146632727673</v>
       </c>
       <c r="G2">
-        <v>0.4823459311640335</v>
+        <v>0.3207149547751271</v>
       </c>
       <c r="H2">
-        <v>0.6272393108492196</v>
+        <v>0.260894416847826</v>
       </c>
       <c r="I2">
-        <v>0.4036582028573055</v>
+        <v>0.1709693190267822</v>
       </c>
       <c r="J2">
-        <v>0.1773797456778965</v>
+        <v>0.1848917841573439</v>
       </c>
       <c r="K2">
-        <v>0.6123666042022364</v>
+        <v>1.906709687541223</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.22294484838072</v>
+        <v>0.7534378198336853</v>
       </c>
       <c r="O2">
-        <v>2.179715765374254</v>
+        <v>1.175847903153084</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08787964648861646</v>
+        <v>0.2419241382700505</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2406054295737192</v>
+        <v>0.2126746239003836</v>
       </c>
       <c r="E3">
-        <v>0.1759379115367139</v>
+        <v>0.1621091206317828</v>
       </c>
       <c r="F3">
-        <v>1.015324480435815</v>
+        <v>0.5745941110689543</v>
       </c>
       <c r="G3">
-        <v>0.4814798036775514</v>
+        <v>0.299857842933001</v>
       </c>
       <c r="H3">
-        <v>0.6303861829426225</v>
+        <v>0.2563910862186631</v>
       </c>
       <c r="I3">
-        <v>0.4094251378300842</v>
+        <v>0.1816683108198159</v>
       </c>
       <c r="J3">
-        <v>0.1731944066788955</v>
+        <v>0.1649296707216976</v>
       </c>
       <c r="K3">
-        <v>0.536990673054305</v>
+        <v>1.664357741311932</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.23033099095953</v>
+        <v>0.7664691546309683</v>
       </c>
       <c r="O3">
-        <v>2.184209726200109</v>
+        <v>1.12186213429311</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08092942514305435</v>
+        <v>0.2198454165859687</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2370649443556232</v>
+        <v>0.196947959324163</v>
       </c>
       <c r="E4">
-        <v>0.1733969294318918</v>
+        <v>0.1502112694287732</v>
       </c>
       <c r="F4">
-        <v>1.014560129155043</v>
+        <v>0.551859372636045</v>
       </c>
       <c r="G4">
-        <v>0.481280726949727</v>
+        <v>0.2877480657780751</v>
       </c>
       <c r="H4">
-        <v>0.6325945259675052</v>
+        <v>0.2540730211870468</v>
       </c>
       <c r="I4">
-        <v>0.4131692934360599</v>
+        <v>0.1886014473522514</v>
       </c>
       <c r="J4">
-        <v>0.1707243435391632</v>
+        <v>0.1528808060869622</v>
       </c>
       <c r="K4">
-        <v>0.4905883100813924</v>
+        <v>1.515420836872153</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.235282209660362</v>
+        <v>0.7752742970979014</v>
       </c>
       <c r="O4">
-        <v>2.188243333832233</v>
+        <v>1.091117970855592</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07809665984949277</v>
+        <v>0.2108409092966639</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2356481340113561</v>
+        <v>0.1905767635925457</v>
       </c>
       <c r="E5">
-        <v>0.172384009244098</v>
+        <v>0.1454014076997687</v>
       </c>
       <c r="F5">
-        <v>1.014391598626247</v>
+        <v>0.5428423976219534</v>
       </c>
       <c r="G5">
-        <v>0.4812832209035136</v>
+        <v>0.2829783345806689</v>
       </c>
       <c r="H5">
-        <v>0.633563940972607</v>
+        <v>0.2532363323045033</v>
       </c>
       <c r="I5">
-        <v>0.414746182288344</v>
+        <v>0.1915162487171968</v>
       </c>
       <c r="J5">
-        <v>0.1697428874650129</v>
+        <v>0.1480191027038202</v>
       </c>
       <c r="K5">
-        <v>0.4716497704200151</v>
+        <v>1.454681790456419</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.237404668673001</v>
+        <v>0.7790598398122484</v>
       </c>
       <c r="O5">
-        <v>2.190207505010108</v>
+        <v>1.079163133922819</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07762625874360651</v>
+        <v>0.2093452473823731</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2354144458504379</v>
+        <v>0.1895210149593112</v>
       </c>
       <c r="E6">
-        <v>0.1722171784900652</v>
+        <v>0.1446049773533353</v>
       </c>
       <c r="F6">
-        <v>1.014372250757503</v>
+        <v>0.5413596977161461</v>
       </c>
       <c r="G6">
-        <v>0.4812886840172865</v>
+        <v>0.2821960104890593</v>
       </c>
       <c r="H6">
-        <v>0.6337291107400773</v>
+        <v>0.2531037935688474</v>
       </c>
       <c r="I6">
-        <v>0.4150111110030307</v>
+        <v>0.19200559655379</v>
       </c>
       <c r="J6">
-        <v>0.1695814352188876</v>
+        <v>0.147214625211376</v>
       </c>
       <c r="K6">
-        <v>0.4685033145785837</v>
+        <v>1.444592975668144</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.237763435799579</v>
+        <v>0.7797002121663112</v>
       </c>
       <c r="O6">
-        <v>2.19055300846955</v>
+        <v>1.077211819125651</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08089122315271879</v>
+        <v>0.2197240094852759</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2370457314471253</v>
+        <v>0.1968618869477154</v>
       </c>
       <c r="E7">
-        <v>0.1733831774447872</v>
+        <v>0.1501462496386665</v>
       </c>
       <c r="F7">
-        <v>1.014557277376312</v>
+        <v>0.5517367818355154</v>
       </c>
       <c r="G7">
-        <v>0.4812804220767717</v>
+        <v>0.2876830839916238</v>
       </c>
       <c r="H7">
-        <v>0.6326073183701624</v>
+        <v>0.2540613060033152</v>
       </c>
       <c r="I7">
-        <v>0.4131903529334743</v>
+        <v>0.1886403976511262</v>
       </c>
       <c r="J7">
-        <v>0.1707110055490375</v>
+        <v>0.1528150489937801</v>
       </c>
       <c r="K7">
-        <v>0.4903330148381713</v>
+        <v>1.514601891757565</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.235310409342453</v>
+        <v>0.7753245572147662</v>
       </c>
       <c r="O7">
-        <v>2.188268525856131</v>
+        <v>1.090954460554812</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09529380240138607</v>
+        <v>0.2654626661527715</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2444718491668425</v>
+        <v>0.2295931205883335</v>
       </c>
       <c r="E8">
-        <v>0.1787262809616337</v>
+        <v>0.1749459498795218</v>
       </c>
       <c r="F8">
-        <v>1.016628482867489</v>
+        <v>0.5997394508895368</v>
       </c>
       <c r="G8">
-        <v>0.4819782018454504</v>
+        <v>0.3133726491006286</v>
       </c>
       <c r="H8">
-        <v>0.6282670708147862</v>
+        <v>0.259246144780704</v>
       </c>
       <c r="I8">
-        <v>0.405604467494862</v>
+        <v>0.1745815706295466</v>
       </c>
       <c r="J8">
-        <v>0.1759159543776576</v>
+        <v>0.1779632243900124</v>
       </c>
       <c r="K8">
-        <v>0.5864028945492805</v>
+        <v>1.823166007706334</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.225405328146586</v>
+        <v>0.7577612567814995</v>
       </c>
       <c r="O8">
-        <v>2.181000804097152</v>
+        <v>1.156715893884297</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1235044466756676</v>
+        <v>0.3550240551657424</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2598448922137067</v>
+        <v>0.2952017403610512</v>
       </c>
       <c r="E9">
-        <v>0.1899115791062584</v>
+        <v>0.2250449306281155</v>
       </c>
       <c r="F9">
-        <v>1.025195334485886</v>
+        <v>0.7027842706160072</v>
       </c>
       <c r="G9">
-        <v>0.4859896270587569</v>
+        <v>0.3697553628595784</v>
       </c>
       <c r="H9">
-        <v>0.6219447733318333</v>
+        <v>0.2731724345055966</v>
       </c>
       <c r="I9">
-        <v>0.3923404811429856</v>
+        <v>0.1499926845559513</v>
       </c>
       <c r="J9">
-        <v>0.1869136928928583</v>
+        <v>0.2291201577493638</v>
       </c>
       <c r="K9">
-        <v>0.7737859428107754</v>
+        <v>2.427865825511986</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.209275945642901</v>
+        <v>0.7299222359436115</v>
       </c>
       <c r="O9">
-        <v>2.176861862184865</v>
+        <v>1.306202391127044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1442001207571479</v>
+        <v>0.4208392173283926</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.271628493022547</v>
+        <v>0.3444874736842394</v>
       </c>
       <c r="E10">
-        <v>0.1985589939653423</v>
+        <v>0.2629703343126693</v>
       </c>
       <c r="F10">
-        <v>1.03423496470441</v>
+        <v>0.7848985478235022</v>
       </c>
       <c r="G10">
-        <v>0.4905535360955184</v>
+        <v>0.4155446879416616</v>
       </c>
       <c r="H10">
-        <v>0.6186316391853808</v>
+        <v>0.2860074104600443</v>
       </c>
       <c r="I10">
-        <v>0.3835768905006364</v>
+        <v>0.1338763267660436</v>
       </c>
       <c r="J10">
-        <v>0.1954760891039484</v>
+        <v>0.2681118330607291</v>
       </c>
       <c r="K10">
-        <v>0.9107894739537983</v>
+        <v>2.872913079434198</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.199424836302761</v>
+        <v>0.7138202834213985</v>
       </c>
       <c r="O10">
-        <v>2.179992691386417</v>
+        <v>1.430690787901881</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1536063035919</v>
+        <v>0.4508060515441628</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2770943542581392</v>
+        <v>0.3671950649441555</v>
       </c>
       <c r="E11">
-        <v>0.2025858987870777</v>
+        <v>0.2805191610882076</v>
       </c>
       <c r="F11">
-        <v>1.038943451204602</v>
+        <v>0.8238756722142995</v>
       </c>
       <c r="G11">
-        <v>0.4929820654764399</v>
+        <v>0.4374892683910048</v>
       </c>
       <c r="H11">
-        <v>0.6174131025454699</v>
+        <v>0.2924852966556273</v>
       </c>
       <c r="I11">
-        <v>0.3798029548228782</v>
+        <v>0.1269980778257325</v>
       </c>
       <c r="J11">
-        <v>0.1994761959647491</v>
+        <v>0.286222893633294</v>
       </c>
       <c r="K11">
-        <v>0.972961028878558</v>
+        <v>3.075790730546913</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.1953755242276</v>
+        <v>0.7075162475637669</v>
       </c>
       <c r="O11">
-        <v>2.182758757657325</v>
+        <v>1.491013569479691</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1571667496039879</v>
+        <v>0.4621594837100247</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.279179181595822</v>
+        <v>0.3758395852715637</v>
       </c>
       <c r="E12">
-        <v>0.2041241278389307</v>
+        <v>0.2872116989626647</v>
       </c>
       <c r="F12">
-        <v>1.040812128864772</v>
+        <v>0.8388889968293824</v>
       </c>
       <c r="G12">
-        <v>0.4939524332274914</v>
+        <v>0.4459741304035276</v>
       </c>
       <c r="H12">
-        <v>0.6169931317705277</v>
+        <v>0.2950367623240879</v>
       </c>
       <c r="I12">
-        <v>0.3784044339365106</v>
+        <v>0.1244612997827294</v>
       </c>
       <c r="J12">
-        <v>0.2010060193490659</v>
+        <v>0.2931407280296696</v>
       </c>
       <c r="K12">
-        <v>0.9964807688046733</v>
+        <v>3.152697370904349</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.1939041296746</v>
+        <v>0.7052826385855866</v>
       </c>
       <c r="O12">
-        <v>2.183999216285827</v>
+        <v>1.514432113583439</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1564000135150536</v>
+        <v>0.4597140392019128</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2787295107203533</v>
+        <v>0.3739757307587439</v>
       </c>
       <c r="E13">
-        <v>0.2037922510235575</v>
+        <v>0.2857681670629617</v>
       </c>
       <c r="F13">
-        <v>1.040405866408847</v>
+        <v>0.8356439977162893</v>
       </c>
       <c r="G13">
-        <v>0.4937411896488442</v>
+        <v>0.444138740666844</v>
       </c>
       <c r="H13">
-        <v>0.6170817365867265</v>
+        <v>0.2944827724701184</v>
       </c>
       <c r="I13">
-        <v>0.3787042699933272</v>
+        <v>0.1250045776407948</v>
       </c>
       <c r="J13">
-        <v>0.2006758748199218</v>
+        <v>0.2916481018512371</v>
       </c>
       <c r="K13">
-        <v>0.9914164298446337</v>
+        <v>3.136130192816552</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.194218265746322</v>
+        <v>0.7057567428082123</v>
       </c>
       <c r="O13">
-        <v>2.183723476328993</v>
+        <v>1.509362168109732</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1538992546358742</v>
+        <v>0.4517399818302721</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2772655739405963</v>
+        <v>0.3679053140967028</v>
       </c>
       <c r="E14">
-        <v>0.2027121831011485</v>
+        <v>0.2810687874863831</v>
       </c>
       <c r="F14">
-        <v>1.039095471788386</v>
+        <v>0.8251056261305365</v>
       </c>
       <c r="G14">
-        <v>0.4930608810201562</v>
+        <v>0.43818373018226</v>
       </c>
       <c r="H14">
-        <v>0.6173777205604978</v>
+        <v>0.2926931957265992</v>
       </c>
       <c r="I14">
-        <v>0.379687284633578</v>
+        <v>0.1267879995267787</v>
       </c>
       <c r="J14">
-        <v>0.1996017536290395</v>
+        <v>0.2867907992541632</v>
       </c>
       <c r="K14">
-        <v>0.9748964866817289</v>
+        <v>3.082116134595736</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.195253230033948</v>
+        <v>0.707329368674209</v>
       </c>
       <c r="O14">
-        <v>2.182856942432551</v>
+        <v>1.49292842482069</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1523672681267101</v>
+        <v>0.44685642961052</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2763708228953305</v>
+        <v>0.3641930870391121</v>
       </c>
       <c r="E15">
-        <v>0.2020523439434854</v>
+        <v>0.2781965662854518</v>
       </c>
       <c r="F15">
-        <v>1.038303972602407</v>
+        <v>0.8186842074304082</v>
       </c>
       <c r="G15">
-        <v>0.4926507815959695</v>
+        <v>0.4345593449455265</v>
       </c>
       <c r="H15">
-        <v>0.6175644177236137</v>
+        <v>0.2916100475535188</v>
       </c>
       <c r="I15">
-        <v>0.380293392936504</v>
+        <v>0.1278893173155796</v>
       </c>
       <c r="J15">
-        <v>0.1989457849065275</v>
+        <v>0.2838234991983626</v>
       </c>
       <c r="K15">
-        <v>0.9647744709254198</v>
+        <v>3.049042181987573</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.195895244927819</v>
+        <v>0.7083128580395766</v>
       </c>
       <c r="O15">
-        <v>2.182351302513126</v>
+        <v>1.482938619699297</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1435852131685209</v>
+        <v>0.4188815068928875</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2712733961022877</v>
+        <v>0.3430096242759788</v>
       </c>
       <c r="E16">
-        <v>0.1982976949605373</v>
+        <v>0.2618298239635024</v>
       </c>
       <c r="F16">
-        <v>1.033939247162593</v>
+        <v>0.7823856522810217</v>
       </c>
       <c r="G16">
-        <v>0.490401922351964</v>
+        <v>0.4141342188020474</v>
       </c>
       <c r="H16">
-        <v>0.6187170777556332</v>
+        <v>0.2855974749238896</v>
       </c>
       <c r="I16">
-        <v>0.3838278059254487</v>
+        <v>0.1343351834250271</v>
       </c>
       <c r="J16">
-        <v>0.1952167833375569</v>
+        <v>0.2669362409063325</v>
       </c>
       <c r="K16">
-        <v>0.9067232361870197</v>
+        <v>2.859664774283146</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.199698150274948</v>
+        <v>0.7142533811820755</v>
       </c>
       <c r="O16">
-        <v>2.179838928369293</v>
+        <v>1.426826604344484</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1381953705507044</v>
+        <v>0.4017279589568687</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2681731979621418</v>
+        <v>0.3300908312619839</v>
       </c>
       <c r="E17">
-        <v>0.1960181500300138</v>
+        <v>0.2518684165182563</v>
       </c>
       <c r="F17">
-        <v>1.031414307966301</v>
+        <v>0.7605472738795527</v>
       </c>
       <c r="G17">
-        <v>0.48911261994553</v>
+        <v>0.4018996985964236</v>
       </c>
       <c r="H17">
-        <v>0.6194980916503852</v>
+        <v>0.2820771730355318</v>
       </c>
       <c r="I17">
-        <v>0.3860505265425244</v>
+        <v>0.1384074629753207</v>
       </c>
       <c r="J17">
-        <v>0.1929560387170426</v>
+        <v>0.2566761730637239</v>
       </c>
       <c r="K17">
-        <v>0.8710707357026592</v>
+        <v>2.743610319201821</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.202141663462761</v>
+        <v>0.7181638763317792</v>
       </c>
       <c r="O17">
-        <v>2.17864138440288</v>
+        <v>1.393380284045577</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1350945024410635</v>
+        <v>0.3918641404185479</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2663999789847367</v>
+        <v>0.3226870457010023</v>
       </c>
       <c r="E18">
-        <v>0.1947157880976391</v>
+        <v>0.2461664838936812</v>
       </c>
       <c r="F18">
-        <v>1.030018162000218</v>
+        <v>0.7481378922882982</v>
       </c>
       <c r="G18">
-        <v>0.4884042116184446</v>
+        <v>0.3949667256659666</v>
       </c>
       <c r="H18">
-        <v>0.6199744793646431</v>
+        <v>0.2801121377900273</v>
       </c>
       <c r="I18">
-        <v>0.3873489934138694</v>
+        <v>0.1407922155119803</v>
       </c>
       <c r="J18">
-        <v>0.1916656061514459</v>
+        <v>0.2508096410151808</v>
       </c>
       <c r="K18">
-        <v>0.8505501343761921</v>
+        <v>2.676897405979105</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.203587777752531</v>
+        <v>0.7205087452354206</v>
       </c>
       <c r="O18">
-        <v>2.178078885608642</v>
+        <v>1.374487550727139</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1340444770878548</v>
+        <v>0.3885247905031832</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2658013077107171</v>
+        <v>0.3201847199254075</v>
       </c>
       <c r="E19">
-        <v>0.1942763393802167</v>
+        <v>0.2442405146367719</v>
       </c>
       <c r="F19">
-        <v>1.029555093949057</v>
+        <v>0.743961711792565</v>
       </c>
       <c r="G19">
-        <v>0.488170050769412</v>
+        <v>0.3926367718853356</v>
       </c>
       <c r="H19">
-        <v>0.6201404436533835</v>
+        <v>0.2794568809048457</v>
       </c>
       <c r="I19">
-        <v>0.3877920697145817</v>
+        <v>0.141606868275263</v>
       </c>
       <c r="J19">
-        <v>0.1912303871309575</v>
+        <v>0.2488291368470783</v>
       </c>
       <c r="K19">
-        <v>0.8435998111776541</v>
+        <v>2.654315584042308</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.204084396346865</v>
+        <v>0.7213189054424163</v>
       </c>
       <c r="O19">
-        <v>2.177910123081062</v>
+        <v>1.368148685236235</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1387692104476344</v>
+        <v>0.4035537178059343</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2685021923187776</v>
+        <v>0.3314632584731925</v>
       </c>
       <c r="E20">
-        <v>0.1962599040969835</v>
+        <v>0.2529259362030984</v>
       </c>
       <c r="F20">
-        <v>1.03167728309981</v>
+        <v>0.7628561874414146</v>
       </c>
       <c r="G20">
-        <v>0.4892464355386181</v>
+        <v>0.4031912176858867</v>
       </c>
       <c r="H20">
-        <v>0.6194121397786034</v>
+        <v>0.2824456854991837</v>
       </c>
       <c r="I20">
-        <v>0.3858118424387453</v>
+        <v>0.1379695456488259</v>
       </c>
       <c r="J20">
-        <v>0.1931956757167228</v>
+        <v>0.2577647332607569</v>
       </c>
       <c r="K20">
-        <v>0.8748674878386851</v>
+        <v>2.755960382786952</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.201877339056999</v>
+        <v>0.717737649416371</v>
       </c>
       <c r="O20">
-        <v>2.178755793349239</v>
+        <v>1.396904711906984</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1546338301855741</v>
+        <v>0.454081988268257</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2776951610058802</v>
+        <v>0.369687067729572</v>
       </c>
       <c r="E21">
-        <v>0.2030290640652694</v>
+        <v>0.2824477909326717</v>
       </c>
       <c r="F21">
-        <v>1.039478041819095</v>
+        <v>0.828193953312379</v>
       </c>
       <c r="G21">
-        <v>0.4932593266802598</v>
+        <v>0.4399279924249981</v>
       </c>
       <c r="H21">
-        <v>0.6172896579381728</v>
+        <v>0.293216112360156</v>
       </c>
       <c r="I21">
-        <v>0.3793977192473922</v>
+        <v>0.1262623012909272</v>
       </c>
       <c r="J21">
-        <v>0.1999168403411176</v>
+        <v>0.2882158414839182</v>
       </c>
       <c r="K21">
-        <v>0.9797494374915345</v>
+        <v>3.097978996343102</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.194947554510854</v>
+        <v>0.7068632257881404</v>
       </c>
       <c r="O21">
-        <v>2.183106225796763</v>
+        <v>1.497739421157348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.164993577392508</v>
+        <v>0.4871389081199453</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2837908062900851</v>
+        <v>0.3949368329312222</v>
       </c>
       <c r="E22">
-        <v>0.2075307531134811</v>
+        <v>0.302019357700722</v>
       </c>
       <c r="F22">
-        <v>1.045075639197762</v>
+        <v>0.8723840642705767</v>
       </c>
       <c r="G22">
-        <v>0.4961777424044271</v>
+        <v>0.4649646820477784</v>
       </c>
       <c r="H22">
-        <v>0.6161441500875213</v>
+        <v>0.3008322757506647</v>
       </c>
       <c r="I22">
-        <v>0.3753840039961739</v>
+        <v>0.1190078568911477</v>
       </c>
       <c r="J22">
-        <v>0.2043973319573809</v>
+        <v>0.3084676190355538</v>
       </c>
       <c r="K22">
-        <v>1.048159512576547</v>
+        <v>3.321992336827293</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.190779818449293</v>
+        <v>0.7006548499670799</v>
       </c>
       <c r="O22">
-        <v>2.18707451523386</v>
+        <v>1.567018722173543</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1594652690231158</v>
+        <v>0.4694921152963616</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2805294843603292</v>
+        <v>0.3814344994764554</v>
       </c>
       <c r="E23">
-        <v>0.2051210342701353</v>
+        <v>0.2915466816087289</v>
       </c>
       <c r="F23">
-        <v>1.042042429973378</v>
+        <v>0.8486558008226268</v>
       </c>
       <c r="G23">
-        <v>0.4945930461467327</v>
+        <v>0.45150306840236</v>
       </c>
       <c r="H23">
-        <v>0.6167334311838459</v>
+        <v>0.2967123183012603</v>
       </c>
       <c r="I23">
-        <v>0.3775098844061205</v>
+        <v>0.1228424471850309</v>
       </c>
       <c r="J23">
-        <v>0.201997984735641</v>
+        <v>0.2976247809867374</v>
       </c>
       <c r="K23">
-        <v>1.011660710875503</v>
+        <v>3.202380707808061</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.1929712028304</v>
+        <v>0.7038837995490397</v>
       </c>
       <c r="O23">
-        <v>2.184853606499701</v>
+        <v>1.529718442812936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.138509784187093</v>
+        <v>0.4027282986371858</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2683534255334621</v>
+        <v>0.330842711568053</v>
       </c>
       <c r="E24">
-        <v>0.1961505816028932</v>
+        <v>0.2524477539842565</v>
       </c>
       <c r="F24">
-        <v>1.031558219235237</v>
+        <v>0.7618118750162495</v>
       </c>
       <c r="G24">
-        <v>0.4891858352546024</v>
+        <v>0.4026070089816329</v>
       </c>
       <c r="H24">
-        <v>0.6194509133530062</v>
+        <v>0.2822788982498707</v>
       </c>
       <c r="I24">
-        <v>0.3859196873710103</v>
+        <v>0.1381673926428321</v>
       </c>
       <c r="J24">
-        <v>0.1930873068600079</v>
+        <v>0.2572724955943357</v>
       </c>
       <c r="K24">
-        <v>0.8731510493021233</v>
+        <v>2.750376894587333</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.201996711446014</v>
+        <v>0.7179300459994451</v>
       </c>
       <c r="O24">
-        <v>2.178703676632182</v>
+        <v>1.395310274843126</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1158773366562542</v>
+        <v>0.3308000020271606</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2555998328936653</v>
+        <v>0.2772790412108606</v>
       </c>
       <c r="E25">
-        <v>0.1868100951436418</v>
+        <v>0.2113125212987441</v>
       </c>
       <c r="F25">
-        <v>1.02239555301356</v>
+        <v>0.6738566920895863</v>
       </c>
       <c r="G25">
-        <v>0.484620906670429</v>
+        <v>0.3537892355763574</v>
       </c>
       <c r="H25">
-        <v>0.6234210497628823</v>
+        <v>0.2689715168742168</v>
       </c>
       <c r="I25">
-        <v>0.3957562997120113</v>
+        <v>0.1563122485851438</v>
       </c>
       <c r="J25">
-        <v>0.1838538211840444</v>
+        <v>0.2150554156142448</v>
       </c>
       <c r="K25">
-        <v>0.7232072601819937</v>
+        <v>2.264220312525623</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.213287643735057</v>
+        <v>0.736713977972876</v>
       </c>
       <c r="O25">
-        <v>2.176898205287785</v>
+        <v>1.263350679448905</v>
       </c>
     </row>
   </sheetData>
